--- a/classificadores.xlsx
+++ b/classificadores.xlsx
@@ -9,15 +9,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="NREDS" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="MUNICIPIO" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BAIRRO" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BAIRRO_N_CAD" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="LOGRADOURO" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LOGRADOURO_N_CAD" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="COMPLEMENTO ENDERECO" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="PONTO DE REFERENCIA" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="NREDS" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="MUNICIPIO" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BAIRRO" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BAIRRO_N_CAD" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="LOGRADOURO" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="LOGRADOURO_N_CAD" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="COMPLEMENTO ENDERECO" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="PONTO DE REFERENCIA" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="390">
   <si>
     <t xml:space="preserve"> [Número REDS]InList(</t>
   </si>
@@ -916,33 +917,855 @@
     <t xml:space="preserve">Else("SETOR_INVALIDO")</t>
   </si>
   <si>
+    <t xml:space="preserve">TIPO DE CLASSIFICADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASSIFICADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NREDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-007094892-001</t>
+  </si>
+  <si>
     <t xml:space="preserve">CENTRO</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-043506650-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-043372540-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-008152710-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-025281151-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-053706494-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-010633260-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-025276030-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-021924998-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-007869993-001</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOM PASTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-021679660-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-042224523-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-004484204-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-035942915-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-011336080-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-030389760-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-046961854-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-057556877-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-003100773-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-014052333-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-029935221-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-000036976-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-036207990-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-013750539-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-040933552-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-053727879-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-011266550-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-006355492-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-000084281-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-016364554-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-035929972-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-036393879-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-024348830-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-026872052-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-057370865-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-025429762-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-015707789-001</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALTO GOIAS</t>
   </si>
   <si>
+    <t xml:space="preserve">2015-028254501-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-001153165-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-044299622-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-004488713-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-058215719-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-052222942-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-005035783-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-031990366-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-057958189-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-016894509-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-015298304-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-013312374-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-011200695-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-014215927-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-004960025-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-023758611-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-008391237-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAO JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-055106594-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-006591508-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-003246180-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-004973720-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-034361578-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-054320117-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-006011227-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-014830228-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-018567451-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-051272485-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-062831952-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-007459087-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-017459098-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-051815051-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-002989938-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-021560429-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-027957885-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-044477415-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-006224820-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-015408652-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-029451705-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-044002672-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-013815549-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-057561710-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-051561205-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-028639104-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-056526109-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-017253295-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-042498654-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-011204089-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-009706259-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-015938319-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-049760454-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-051770252-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-014820367-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-024453331-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANALTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-014162965-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-011742917-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-008690389-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-054900430-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-020281521-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-037107136-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-025976047-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-005046376-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-026902994-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-043336850-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-038409984-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-036252196-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-033871236-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-030076292-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-024090910-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-015670657-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-009062716-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-002644711-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-001602297-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-040183427-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-034330486-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-019778724-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-013279736-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-009930250-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-005366820-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-002416191-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-000294314-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-022923477-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-021098549-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-018105470-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-017542422-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-016422051-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-014946738-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-013813656-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-008622455-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-006298710-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-001791504-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-025004710-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-024384170-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-021612007-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-018694673-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-015207809-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-010878922-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-001602297-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-009415510-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-038912820-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-058139687-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-041666416-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-034046267-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-050133183-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-056716708-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-060065817-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-011127572-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-016554642-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-021335410-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-009375560-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-008664205-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-025392314-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-005740962-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-031369713-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-013373490-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-001558921-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-002662804-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-043056339-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-034747071-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-031091006-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-027985490-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-013357040-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-007522295-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-001679635-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-001420740-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-039617179-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-025368343-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-017976500-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-012246529-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-007442521-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-005089159-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-001511157-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-025837489-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-021994810-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-020604107-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-018069251-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-017271375-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-015886141-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-014934053-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-010518604-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-008057290-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-005181042-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-000319664-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-024916573-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-023395969-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-021230530-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-018490330-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-014689314-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-010816751-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-008338972-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-029799455-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-059198914-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-001410836-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-028143349-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-047097560-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-051598742-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-058311704-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-000996556-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-021935120-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-054947917-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-015154940-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-009674903-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-007071831-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-042036841-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-057581827-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-031351778-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-000033405-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-058106226-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-026594811-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-039899419-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-024759221-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-020944020-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-004351775-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-000817507-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-038737599-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-019845943-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-015944476-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-011684887-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-007286109-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-003177234-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-000973116-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-024458020-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-021413901-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-020003327-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-018038580-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-017257027-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-015082456-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-014404174-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-008766386-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-007809906-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-002944407-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-028022412-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-024564338-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-022528972-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-020405479-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-018173230-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-013362800-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-010191472-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-008365016-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-032240305-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-013146495-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-030772392-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-049072859-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-053756513-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-057924234-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-004466256-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-026224842-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-026035733-001</t>
+  </si>
+  <si>
     <t xml:space="preserve">NITEROI</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-024820926-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-002426065-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-053839882-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-003033491-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-002061604-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-038111370-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-053499024-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-001790512-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-010658461-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-023207687-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-002279273-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-053724806-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-023214598-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-005814224-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-008059170-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-055427940-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-019262353-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-010469547-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-008140875-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-056447781-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-049004380-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-007356202-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-002672812-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-042941369-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-059165927-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-028182700-001</t>
+  </si>
+  <si>
     <t xml:space="preserve">PORTO VELHO</t>
   </si>
   <si>
     <t xml:space="preserve">CAJURU_SGP</t>
   </si>
   <si>
-    <t xml:space="preserve">SAO JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANALTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDIO</t>
-  </si>
-  <si>
     <t xml:space="preserve">CENTRO_P_EUSTAQUIO</t>
   </si>
   <si>
@@ -950,735 +1773,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOURDES_ITATIAIUCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-007094892-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-007869993-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-015707789-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-008391237-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-024453331-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-043506650-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-021679660-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-028254501-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-055106594-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-014162965-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-043372540-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-042224523-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-001153165-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-006591508-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-011742917-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-008152710-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-004484204-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-044299622-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-003246180-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-008690389-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-025281151-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-035942915-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-004488713-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-004973720-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-054900430-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-053706494-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-011336080-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-058215719-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-034361578-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-020281521-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-010633260-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-030389760-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-052222942-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-054320117-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-037107136-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-025276030-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-046961854-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-005035783-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-006011227-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-025976047-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-021924998-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-057556877-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-031990366-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-014830228-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-005046376-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-003100773-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-057958189-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-018567451-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-026902994-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-014052333-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-016894509-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-051272485-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-043336850-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-029935221-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-015298304-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-062831952-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-038409984-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-000036976-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-013312374-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-007459087-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-036252196-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-036207990-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-011200695-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-017459098-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-033871236-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-013750539-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-014215927-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-051815051-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-030076292-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-040933552-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-004960025-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-002989938-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-024090910-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-053727879-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-023758611-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-021560429-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-015670657-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-011266550-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-027957885-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-009062716-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-006355492-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-044477415-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-002644711-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-000084281-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-006224820-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-001602297-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-016364554-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-015408652-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-040183427-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-035929972-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-029451705-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-034330486-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-036393879-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-044002672-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-019778724-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-024348830-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-013815549-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-013279736-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-026872052-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-057561710-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-009930250-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-057370865-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-051561205-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-005366820-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-025429762-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-028639104-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-002416191-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-056526109-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-000294314-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-017253295-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-022923477-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-042498654-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-021098549-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-011204089-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-018105470-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-009706259-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-017542422-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-015938319-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-016422051-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-049760454-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-014946738-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-051770252-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-013813656-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-014820367-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-008622455-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-006298710-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-001791504-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-025004710-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-024384170-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-021612007-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-018694673-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-015207809-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-010878922-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-001602297-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-009415510-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-038912820-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-058139687-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-041666416-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-034046267-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-050133183-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-056716708-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-060065817-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-011127572-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-016554642-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-021335410-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-009375560-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-008664205-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-025392314-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-005740962-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-031369713-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-013373490-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-001558921-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-002662804-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-043056339-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-034747071-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-031091006-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-027985490-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-013357040-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-007522295-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-001679635-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-001420740-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-039617179-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-025368343-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-017976500-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-012246529-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-007442521-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-005089159-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-001511157-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-025837489-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-021994810-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-020604107-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-018069251-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-017271375-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-015886141-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-014934053-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-010518604-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-008057290-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-005181042-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-000319664-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-024916573-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-023395969-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-021230530-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-018490330-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-014689314-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-010816751-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-008338972-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-029799455-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-059198914-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-001410836-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-028143349-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-047097560-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-051598742-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-058311704-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-000996556-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-021935120-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-054947917-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-015154940-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-009674903-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-007071831-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-042036841-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-057581827-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-031351778-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-000033405-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-058106226-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-026594811-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-039899419-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-024759221-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-020944020-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-004351775-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-000817507-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-038737599-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-019845943-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-015944476-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-011684887-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-007286109-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-003177234-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-000973116-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-024458020-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-021413901-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-020003327-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-018038580-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-017257027-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-015082456-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-014404174-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-008766386-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-007809906-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-002944407-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-028022412-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-024564338-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-022528972-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-020405479-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-018173230-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-013362800-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-010191472-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-008365016-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-032240305-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-013146495-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-030772392-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-049072859-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-053756513-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-057924234-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-004466256-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-026224842-001</t>
   </si>
 </sst>
 </file>
@@ -1688,11 +1782,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1708,6 +1803,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1758,7 +1858,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1767,11 +1867,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1794,20 +1902,21 @@
   </sheetPr>
   <dimension ref="A1:L424"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="A40 A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="168.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="18.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="e">
+      <c r="A1" s="0" t="n">
         <f aca="false">IF(,TRUE())</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,7 +2083,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2004,7 +2113,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2034,7 +2143,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2064,7 +2173,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2094,7 +2203,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2124,7 +2233,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2154,7 +2263,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2214,7 +2323,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2239,7 +2348,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2264,7 +2373,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2364,7 +2473,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2384,7 +2493,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2409,7 +2518,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2434,7 +2543,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2464,7 +2573,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2489,7 +2598,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2539,7 +2648,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2559,7 +2668,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2584,7 +2693,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2609,7 +2718,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2659,7 +2768,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2709,7 +2818,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2729,7 +2838,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2754,7 +2863,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2779,7 +2888,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2804,7 +2913,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2829,7 +2938,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2879,7 +2988,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2899,7 +3008,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2924,7 +3033,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2949,7 +3058,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2974,7 +3083,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2999,7 +3108,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3064,7 +3173,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3084,7 +3193,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3109,7 +3218,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3134,7 +3243,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3159,7 +3268,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3234,7 +3343,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3254,7 +3363,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3279,7 +3388,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3304,7 +3413,7 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3329,7 +3438,7 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3439,7 +3548,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3459,7 +3568,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3484,7 +3593,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3509,7 +3618,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3534,7 +3643,7 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3559,7 +3668,7 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3609,7 +3718,7 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3629,7 +3738,7 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3659,7 +3768,7 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3684,7 +3793,7 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3709,7 +3818,7 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3759,7 +3868,7 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3779,7 +3888,7 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3804,7 +3913,7 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3829,7 +3938,7 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3879,7 +3988,7 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3944,82 +4053,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G163"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D163" activeCellId="0" sqref="D163"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="2" sqref="A40 A34 E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D2:G28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="2" sqref="A40 A34 D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="103.79"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="3" t="s">
-        <v>120</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="0" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>130</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>140</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>160</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>164</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>3</v>
@@ -4027,748 +4214,73 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>184</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>188</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>210</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>216</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>219</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="0" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D109" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D110" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="0" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D123" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D124" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D126" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="0" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D131" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D135" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D136" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D138" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D141" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D142" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D143" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="0" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="0" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D149" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D150" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D151" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D153" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="0" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D157" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D159" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="0" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4781,27 +4293,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H162" activeCellId="0" sqref="H162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A239" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C273" activeCellId="2" sqref="A40 A34 C273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -4810,1115 +4316,3080 @@
       <c r="C1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C47" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C48" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="C49" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="C50" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="C51" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="C53" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="C56" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="C57" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="C58" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C59" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="C60" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="C61" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="C62" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C63" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="C64" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="C65" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="C66" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C67" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="C68" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="C69" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="C70" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C71" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="C73" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="C74" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C75" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="C76" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="C77" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="C78" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C79" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="C80" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="C81" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="C82" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="C83" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="C84" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="C85" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="C86" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="C87" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="C88" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="C89" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="C90" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="C91" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="C92" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="C93" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="C94" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="C95" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="C96" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="C97" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="C98" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="C99" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="C100" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="C101" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="C102" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="C103" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="C104" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="C105" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="C106" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="C107" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="C108" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="C109" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="C110" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="0" t="s">
+      <c r="C111" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="C112" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="0" t="s">
+      <c r="C113" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="C114" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="0" t="s">
+      <c r="C115" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="C116" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="0" t="s">
+      <c r="C117" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="C118" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="0" t="s">
+      <c r="C119" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="C120" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="0" t="s">
+      <c r="C121" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="C122" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="0" t="s">
+      <c r="C123" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="C124" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="0" t="s">
+      <c r="C125" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="C126" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="0" t="s">
+      <c r="C127" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="C128" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="0" t="s">
+      <c r="C129" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="0" t="s">
+      <c r="C130" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="0" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="0" t="s">
+      <c r="C131" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="0" t="s">
+      <c r="C132" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="0" t="s">
+      <c r="C133" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="0" t="s">
+      <c r="C134" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="0" t="s">
+      <c r="C135" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="0" t="s">
+      <c r="C136" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="0" t="s">
+      <c r="C137" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="0" t="s">
+      <c r="C138" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" s="0" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="0" t="s">
+      <c r="C139" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="0" t="s">
+      <c r="C140" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="0" t="s">
+      <c r="C141" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="0" t="s">
+      <c r="C142" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="0" t="s">
+      <c r="C143" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="0" t="s">
+      <c r="C144" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="0" t="s">
+      <c r="C145" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146" s="0" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="0" t="s">
+      <c r="C146" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="0" t="s">
+      <c r="C147" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="0" t="s">
+      <c r="C148" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="0" t="s">
+      <c r="C149" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="0" t="s">
+      <c r="C150" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="0" t="s">
+      <c r="C151" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="0" t="s">
+      <c r="C152" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="0" t="s">
+      <c r="C153" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="0" t="s">
+      <c r="C154" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="0" t="s">
+      <c r="C155" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="0" t="s">
+      <c r="C157" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="0" t="s">
+      <c r="C158" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="0" t="s">
+      <c r="C159" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="0" t="s">
+      <c r="C161" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="0" t="s">
+      <c r="C162" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H72" s="0" t="s">
+      <c r="C163" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H73" s="0" t="s">
+      <c r="C164" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="0" t="s">
+      <c r="C165" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="0" t="s">
+      <c r="C166" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="0" t="s">
+      <c r="C167" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" s="0" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="0" t="s">
+      <c r="C168" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169" s="0" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="0" t="s">
+      <c r="C169" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="0" t="s">
+      <c r="C170" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="0" t="s">
+      <c r="C171" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H81" s="0" t="s">
+      <c r="C172" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173" s="0" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="0" t="s">
+      <c r="C173" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174" s="0" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H83" s="0" t="s">
+      <c r="C174" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" s="0" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H84" s="0" t="s">
+      <c r="C175" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H85" s="0" t="s">
+      <c r="C176" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H86" s="0" t="s">
+      <c r="C177" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H87" s="0" t="s">
+      <c r="C178" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B179" s="0" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H88" s="0" t="s">
+      <c r="C179" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H89" s="0" t="s">
+      <c r="C180" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" s="0" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H90" s="0" t="s">
+      <c r="C181" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B182" s="0" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H91" s="0" t="s">
+      <c r="C182" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H92" s="0" t="s">
+      <c r="C183" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H93" s="0" t="s">
+      <c r="C184" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B185" s="0" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H94" s="0" t="s">
+      <c r="C185" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B186" s="0" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H95" s="0" t="s">
+      <c r="C186" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H96" s="0" t="s">
+      <c r="C187" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H97" s="0" t="s">
+      <c r="C188" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H98" s="0" t="s">
+      <c r="C189" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="0" t="s">
+      <c r="C190" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="0" t="s">
+      <c r="C191" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H101" s="0" t="s">
+      <c r="C192" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B193" s="0" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H102" s="0" t="s">
+      <c r="C193" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B194" s="0" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H103" s="0" t="s">
+      <c r="C194" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="0" t="s">
+      <c r="C195" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H105" s="0" t="s">
+      <c r="C196" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H106" s="0" t="s">
+      <c r="C197" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H107" s="0" t="s">
+      <c r="C198" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H108" s="0" t="s">
+      <c r="C199" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H109" s="0" t="s">
+      <c r="C200" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H110" s="0" t="s">
+      <c r="C201" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H111" s="0" t="s">
+      <c r="C202" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H112" s="0" t="s">
+      <c r="C203" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H113" s="0" t="s">
+      <c r="C204" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H114" s="0" t="s">
+      <c r="C205" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B206" s="0" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H115" s="0" t="s">
+      <c r="C206" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H116" s="0" t="s">
+      <c r="C207" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B208" s="0" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H117" s="0" t="s">
+      <c r="C208" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H118" s="0" t="s">
+      <c r="C209" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B213" s="0" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H119" s="0" t="s">
+      <c r="C213" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H120" s="0" t="s">
+      <c r="C214" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H121" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H122" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H123" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H124" s="0" t="s">
+      <c r="C216" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H125" s="0" t="s">
+      <c r="C218" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H126" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H127" s="0" t="s">
+      <c r="C219" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H128" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H129" s="0" t="s">
+      <c r="C220" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B221" s="0" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="0" t="s">
+      <c r="C221" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="0" t="s">
+      <c r="C222" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="0" t="s">
+      <c r="C223" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B224" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H133" s="0" t="s">
+      <c r="C224" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H134" s="0" t="s">
+      <c r="C225" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H135" s="0" t="s">
+      <c r="C226" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B227" s="0" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="0" t="s">
+      <c r="C227" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B228" s="0" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H137" s="0" t="s">
+      <c r="C228" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H138" s="0" t="s">
+      <c r="C229" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H139" s="0" t="s">
+      <c r="C230" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H140" s="0" t="s">
+      <c r="C231" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H141" s="0" t="s">
+      <c r="C232" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H142" s="0" t="s">
+      <c r="C233" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H143" s="0" t="s">
+      <c r="C234" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H144" s="0" t="s">
+      <c r="C235" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H145" s="0" t="s">
+      <c r="C236" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H146" s="0" t="s">
+      <c r="C237" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H147" s="0" t="s">
+      <c r="C238" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H148" s="0" t="s">
+      <c r="C239" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H149" s="0" t="s">
+      <c r="C240" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B241" s="0" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H150" s="0" t="s">
+      <c r="C241" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H151" s="0" t="s">
+      <c r="C242" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H152" s="0" t="s">
+      <c r="C243" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H153" s="0" t="s">
+      <c r="C244" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H154" s="0" t="s">
+      <c r="C246" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B247" s="0" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H155" s="0" t="s">
+      <c r="C247" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H156" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H157" s="0" t="s">
+      <c r="C248" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H158" s="0" t="s">
+      <c r="C249" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H159" s="0" t="s">
+      <c r="C250" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H160" s="0" t="s">
+      <c r="C251" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H161" s="0" t="s">
+      <c r="C252" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H162" s="0" t="s">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H163" s="0" t="s">
+      <c r="C254" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C280" s="0" t="s">
         <v>358</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5931,69 +7402,1144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="2" sqref="A40 A34 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>104</v>
+      <c r="A1" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>115</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H68" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H69" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H75" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H77" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H81" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H82" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H83" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H85" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H88" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H89" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H91" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H92" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H93" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H96" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H97" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H105" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H106" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H107" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H108" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H109" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H110" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H112" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H113" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H114" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H115" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H117" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H120" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H121" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H122" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H124" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H125" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H127" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H128" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H137" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H138" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H139" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H140" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H141" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H142" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H143" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H144" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H147" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H148" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H153" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H154" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H155" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H157" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H158" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H159" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H161" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6009,66 +8555,66 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="2" sqref="A40 A34 K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>104</v>
+      <c r="A1" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>108</v>
+        <v>385</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>113</v>
+        <v>387</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6081,17 +8627,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J32" activeCellId="2" sqref="A40 A34 J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6104,56 +8702,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="A40 A34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6166,17 +8725,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="A40 A34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6189,69 +8787,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="A40 A34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6267,19 +8813,19 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="I34" activeCellId="2" sqref="A40 A34 I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.02"/>
@@ -6287,46 +8833,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>108</v>
+        <v>385</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>113</v>
+        <v>387</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>115</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
